--- a/teaching/traditional_assets/database/data/kuwait/kuwait_oil_gas_integrated.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_oil_gas_integrated.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.149</v>
+        <v>-0.25</v>
       </c>
       <c r="G2">
-        <v>-0.004857142857142857</v>
+        <v>-0.2435897435897436</v>
       </c>
       <c r="H2">
-        <v>-0.004857142857142857</v>
+        <v>-0.2435897435897436</v>
       </c>
       <c r="I2">
-        <v>-0.2080952380952381</v>
+        <v>-0.7649572649572649</v>
       </c>
       <c r="J2">
-        <v>-0.2080952380952381</v>
+        <v>-0.7649572649572649</v>
       </c>
       <c r="K2">
-        <v>-14</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="L2">
-        <v>-0.6666666666666666</v>
+        <v>-0.6880341880341881</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>52.7</v>
+        <v>56.6</v>
       </c>
       <c r="V2">
-        <v>0.9343971631205674</v>
+        <v>0.8085714285714286</v>
       </c>
       <c r="W2">
-        <v>-0.1603665521191295</v>
+        <v>-0.09710494571773221</v>
       </c>
       <c r="X2">
-        <v>0.08578956526732207</v>
+        <v>0.06826899002817814</v>
       </c>
       <c r="Y2">
-        <v>-0.2461561173864515</v>
+        <v>-0.1653739357459104</v>
       </c>
       <c r="Z2">
-        <v>0.2167406337083291</v>
+        <v>0.3660826032540675</v>
       </c>
       <c r="AA2">
-        <v>-0.04510269377644752</v>
+        <v>-0.280037546933667</v>
       </c>
       <c r="AB2">
-        <v>0.08417986500068826</v>
+        <v>0.06768507597785188</v>
       </c>
       <c r="AC2">
-        <v>-0.1292825587771358</v>
+        <v>-0.3477226229115189</v>
       </c>
       <c r="AD2">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>-50.94</v>
+        <v>-55.59</v>
       </c>
       <c r="AH2">
-        <v>0.03026134800550206</v>
+        <v>0.01422334882410928</v>
       </c>
       <c r="AI2">
-        <v>0.01857323765301815</v>
+        <v>0.01110988890111099</v>
       </c>
       <c r="AJ2">
-        <v>-9.329670329670341</v>
+        <v>-3.857737682165164</v>
       </c>
       <c r="AK2">
-        <v>-1.211126961483595</v>
+        <v>-1.620227338968231</v>
       </c>
       <c r="AL2">
-        <v>0.598</v>
+        <v>0.137</v>
       </c>
       <c r="AM2">
-        <v>0.161</v>
+        <v>-1.023</v>
       </c>
       <c r="AN2">
-        <v>-1.121019108280255</v>
+        <v>-0.1444921316165951</v>
       </c>
       <c r="AO2">
-        <v>-7.307692307692308</v>
+        <v>-65.32846715328466</v>
       </c>
       <c r="AP2">
-        <v>32.44585987261146</v>
+        <v>7.952789699570816</v>
       </c>
       <c r="AQ2">
-        <v>-27.14285714285715</v>
+        <v>8.748778103616813</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.149</v>
+        <v>-0.25</v>
       </c>
       <c r="G3">
-        <v>-0.004857142857142857</v>
+        <v>-0.2435897435897436</v>
       </c>
       <c r="H3">
-        <v>-0.004857142857142857</v>
+        <v>-0.2435897435897436</v>
       </c>
       <c r="I3">
-        <v>-0.2080952380952381</v>
+        <v>-0.7649572649572649</v>
       </c>
       <c r="J3">
-        <v>-0.2080952380952381</v>
+        <v>-0.7649572649572649</v>
       </c>
       <c r="K3">
-        <v>-14</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="L3">
-        <v>-0.6666666666666666</v>
+        <v>-0.6880341880341881</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>52.7</v>
+        <v>56.6</v>
       </c>
       <c r="V3">
-        <v>0.9343971631205674</v>
+        <v>0.8085714285714286</v>
       </c>
       <c r="W3">
-        <v>-0.1603665521191295</v>
+        <v>-0.09710494571773221</v>
       </c>
       <c r="X3">
-        <v>0.08578956526732207</v>
+        <v>0.06826899002817814</v>
       </c>
       <c r="Y3">
-        <v>-0.2461561173864515</v>
+        <v>-0.1653739357459104</v>
       </c>
       <c r="Z3">
-        <v>0.2167406337083291</v>
+        <v>0.3660826032540675</v>
       </c>
       <c r="AA3">
-        <v>-0.04510269377644752</v>
+        <v>-0.280037546933667</v>
       </c>
       <c r="AB3">
-        <v>0.08417986500068826</v>
+        <v>0.06768507597785188</v>
       </c>
       <c r="AC3">
-        <v>-0.1292825587771358</v>
+        <v>-0.3477226229115189</v>
       </c>
       <c r="AD3">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>-50.94</v>
+        <v>-55.59</v>
       </c>
       <c r="AH3">
-        <v>0.03026134800550206</v>
+        <v>0.01422334882410928</v>
       </c>
       <c r="AI3">
-        <v>0.01857323765301815</v>
+        <v>0.01110988890111099</v>
       </c>
       <c r="AJ3">
-        <v>-9.329670329670341</v>
+        <v>-3.857737682165164</v>
       </c>
       <c r="AK3">
-        <v>-1.211126961483595</v>
+        <v>-1.620227338968231</v>
       </c>
       <c r="AL3">
-        <v>0.598</v>
+        <v>0.137</v>
       </c>
       <c r="AM3">
-        <v>0.161</v>
+        <v>-1.023</v>
       </c>
       <c r="AN3">
-        <v>-1.121019108280255</v>
+        <v>-0.1444921316165951</v>
       </c>
       <c r="AO3">
-        <v>-7.307692307692308</v>
+        <v>-65.32846715328466</v>
       </c>
       <c r="AP3">
-        <v>32.44585987261146</v>
+        <v>7.952789699570816</v>
       </c>
       <c r="AQ3">
-        <v>-27.14285714285715</v>
+        <v>8.748778103616813</v>
       </c>
     </row>
   </sheetData>
